--- a/sampleChart.xlsx
+++ b/sampleChart.xlsx
@@ -136,7 +136,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>My Chart</a:t>
+              <a:t>Cytokine array results</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -150,7 +150,7 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>First series</v>
+            <v>means</v>
           </tx>
           <spPr>
             <a:ln>
@@ -159,7 +159,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'Sheet'!$A$1:$A$10</f>
+              <f>'Sheet'!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -203,9 +203,9 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>2</col>
+      <col>4</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,53 +524,98 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>stds</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kkp</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1043081461209843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2601834427239736</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>srl</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03331519044931429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4971198541676912</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iok</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05019411593986726</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.669450422584103</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nfm</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01011441930305049</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7709364009354619</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>uwz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1067485493249866</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.255990664514469</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>rjw</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05395380258988404</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.713453214246213</v>
       </c>
     </row>
   </sheetData>

--- a/sampleChart.xlsx
+++ b/sampleChart.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Xiaomi" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/sampleChart.xlsx
+++ b/sampleChart.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Xiaomi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,13 +125,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -150,16 +150,221 @@
           <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>means</v>
+            <v>group 0</v>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$H$3:$H$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$H$3:$H$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$B$2:$B$8</f>
+              <f>'Sheet'!$B$3:$B$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>group 1</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$I$3:$I$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$I$3:$I$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$3:$C$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <v>group 2</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$J$3:$J$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$J$3:$J$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$3:$D$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <v>group 3</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$K$3:$K$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$K$3:$K$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$E$3:$E$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <v>group 4</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$L$3:$L$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$L$3:$L$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$F$3:$F$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <v>group 5</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <errBars>
+            <errDir val="y"/>
+            <errBarType val="both"/>
+            <errValType val="cust"/>
+            <minus>
+              <numRef>
+                <f>'Sheet'!$M$3:$M$10</f>
+              </numRef>
+            </minus>
+            <plus>
+              <numRef>
+                <f>'Sheet'!$M$3:$M$10</f>
+              </numRef>
+            </plus>
+          </errBars>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$3:$A$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$G$3:$G$10</f>
             </numRef>
           </val>
         </ser>
@@ -173,6 +378,21 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cytokine</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -185,6 +405,21 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Relative Intensity</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -200,12 +435,12 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -215,9 +450,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -510,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,102 +759,414 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>names</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>means</t>
+          <t>group 0 mean</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>stds</t>
+          <t>group 1 mean</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>group 2 mean</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>group 3 mean</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>group 4 mean</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>group 5 mean</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>group 0 std</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>group 1 std</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>group 2 std</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>group 3 std</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>group 4 std</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>group 5 std</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>kkp</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1043081461209843</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2601834427239736</v>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>srl</t>
+          <t>kpd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03331519044931429</v>
+        <v>0.867512912450711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4971198541676912</v>
+        <v>1.913037607185967</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1738825418260015</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.262198767793368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03788640362733962</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1260662713252508</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.06396412683374028</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1121038605024272</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02083707714058143</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01928253017549735</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02244664029092217</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1661434309575922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iok</t>
+          <t>tjl</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05019411593986726</v>
+        <v>0.8864853719455342</v>
       </c>
       <c r="C4" t="n">
-        <v>2.669450422584103</v>
+        <v>0.2111801408569508</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08366048497737839</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4094099067491602</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.683973074211653</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2672503326164518</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07666525666588195</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08105263840918639</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01348846342595564</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1271088857562927</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1116989327807051</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02810990341287654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nfm</t>
+          <t>lva</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01011441930305049</v>
+        <v>0.3784934325201319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7709364009354619</v>
+        <v>1.963319460754545</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4032282920243899</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.525983505688491</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.938937697060888</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4551754844778035</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0182184547163117</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05207588575993628</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.02808281249665454</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09442529204463697</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04196388399855609</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03716341124632972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>uwz</t>
+          <t>dkl</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1067485493249866</v>
+        <v>1.345169103672152</v>
       </c>
       <c r="C6" t="n">
-        <v>1.255990664514469</v>
+        <v>1.495979793718139</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.024330248215198</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.02080920458386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06842185193794954</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3583857055728925</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03131976250668839</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07479322751482305</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1348609151420993</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1171126031206874</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04324659839137777</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.08104675504632428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rjw</t>
+          <t>peo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05395380258988404</v>
+        <v>0.9167787570607652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.713453214246213</v>
+        <v>0.6975820397235822</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4157347716859882</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2473963667949765</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1660617109255209</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.03402088579906</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.002517108213710139</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07977626660140594</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03883445256757059</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1573362283746286</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1150477068830656</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03991683429668268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>yux</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5257061419118091</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007938111546899645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4276907497131211</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8957807896402525</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.683030299138713</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.519660275404653</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03164728814764413</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.08637701858903719</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002061951270452337</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05623042956797793</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.03781930650196354</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02693282937700027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mad</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.033463580863911</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6559428597462346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8042998875867253</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8025647635614261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.539756022664326</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.621427439560141</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.156294165466645</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01601413573992131</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1049533929618787</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00893235085810733</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02977737566611591</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.08408818016007283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>otq</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8333645275835457</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.116702646173992</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.052687762356634</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.177726784176364</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.375153799665902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4471187211615125</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03637777966804832</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0170868376931541</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03308911350576046</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02193937144131065</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01225728229509002</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1706156154934829</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>